--- a/cards_description/cards.xlsx
+++ b/cards_description/cards.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="41280" windowHeight="13692"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6060"/>
   </bookViews>
   <sheets>
     <sheet name="Deck" sheetId="3" r:id="rId1"/>
